--- a/output/kruskal_wallis_test/anova_Q15_Idade.xlsx
+++ b/output/kruskal_wallis_test/anova_Q15_Idade.xlsx
@@ -365,13 +365,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10.5755750450951</v>
+        <v>10.5842481777221</v>
       </c>
       <c r="B2" t="n">
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0317717337923037</v>
+        <v>0.0316560694130594</v>
       </c>
     </row>
   </sheetData>
